--- a/test_cases/web_pt_cases.xlsx
+++ b/test_cases/web_pt_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="5"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Case ID</t>
   </si>
@@ -117,34 +117,34 @@
     <t>Click search button</t>
   </si>
   <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>Wait 5s</t>
+  </si>
+  <si>
+    <t>Locator Type</t>
+  </si>
+  <si>
+    <t>Locator Value</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>kw</t>
+  </si>
+  <si>
+    <t>Search input field</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>Search button</t>
+  </si>
+  <si>
     <t>search_results</t>
-  </si>
-  <si>
-    <t>get_text</t>
-  </si>
-  <si>
-    <t>Get search results text</t>
-  </si>
-  <si>
-    <t>Locator Type</t>
-  </si>
-  <si>
-    <t>Locator Value</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>kw</t>
-  </si>
-  <si>
-    <t>Search input field</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
-    <t>Search button</t>
   </si>
   <si>
     <t>xpath</t>
@@ -327,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -372,6 +372,90 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -381,83 +465,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,7 +488,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,21 +503,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,187 +535,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,11 +744,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,30 +779,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,8 +816,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,10 +832,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -865,127 +865,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,8 +1481,8 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1594,17 +1594,15 @@
       <c r="C5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="11">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1632,6 +1630,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="10.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="16.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="13.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="34.1428571428571" customWidth="1"/>
@@ -1646,10 +1645,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -1663,13 +1662,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
@@ -1680,13 +1679,13 @@
         <v>29</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
@@ -1694,7 +1693,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>42</v>
@@ -1857,7 +1856,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>

--- a/test_cases/web_pt_cases.xlsx
+++ b/test_cases/web_pt_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
   <si>
     <t>Case ID</t>
   </si>
@@ -66,6 +66,18 @@
     <t>VerifySearchResults</t>
   </si>
   <si>
+    <t>SearchBaidu2</t>
+  </si>
+  <si>
+    <t>OpenBaidu2</t>
+  </si>
+  <si>
+    <t>PerformSearch2</t>
+  </si>
+  <si>
+    <t>VerifySearchResults2</t>
+  </si>
+  <si>
     <t>Sub Function Name</t>
   </si>
   <si>
@@ -121,6 +133,9 @@
   </si>
   <si>
     <t>Wait 5s</t>
+  </si>
+  <si>
+    <t>selenium</t>
   </si>
   <si>
     <t>Locator Type</t>
@@ -328,9 +343,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -386,6 +401,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -394,37 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -433,13 +455,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -450,14 +465,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -471,8 +478,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,6 +510,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -535,19 +550,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,7 +628,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,151 +712,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,25 +760,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,17 +789,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,15 +833,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,148 +859,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1369,7 +1384,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C2"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1409,13 +1424,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="16.447619047619" customWidth="1"/>
@@ -1470,6 +1485,27 @@
       </c>
       <c r="G2" s="8"/>
     </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1479,13 +1515,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="24.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="15.2857142857143" customWidth="1"/>
@@ -1498,22 +1534,22 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1527,17 +1563,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
@@ -1548,19 +1584,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:7">
@@ -1571,17 +1607,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
@@ -1592,27 +1628,114 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="11">
-        <v>5</v>
-      </c>
-      <c r="G5" s="10" t="s">
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9">
       <formula1>Locators!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="https://www.baidu.com/"/>
+    <hyperlink ref="F6" r:id="rId1" display="https://www.baidu.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1639,16 +1762,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>1</v>
@@ -1656,53 +1779,53 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1716,13 +1839,15 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="3" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="40.447619047619" style="1" customWidth="1"/>
@@ -1736,107 +1861,107 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="105" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="90" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1870,35 +1995,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_pt_cases.xlsx
+++ b/test_cases/web_pt_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="8" r:id="rId1"/>
@@ -19,11 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
   <si>
     <t>Case ID</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -33,10 +36,19 @@
     <t>TC001</t>
   </si>
   <si>
+    <t xml:space="preserve">Baidu Search Performance </t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Baidu Search Performance </t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Baidu Search Performance 2</t>
   </si>
   <si>
     <t>Execution Order</t>
@@ -1381,19 +1393,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="31.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="26.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="31.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:3">
+    <row r="1" ht="15.75" customHeight="1" spans="1:4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1403,16 +1416,36 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:3">
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1424,13 +1457,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="16.447619047619" customWidth="1"/>
@@ -1446,65 +1479,86 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1534,197 +1588,197 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" s="11">
         <v>2</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:7">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:7">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" s="7">
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" s="11">
         <v>2</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1762,70 +1816,70 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1839,7 +1893,7 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1861,107 +1915,107 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="105" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="90" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1995,35 +2049,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_pt_cases.xlsx
+++ b/test_cases/web_pt_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t>Case ID</t>
   </si>
@@ -51,6 +51,9 @@
     <t>Baidu Search Performance 2</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Execution Order</t>
   </si>
   <si>
@@ -190,6 +193,9 @@
   </si>
   <si>
     <t>Rounds</t>
+  </si>
+  <si>
+    <t>LogDetails</t>
   </si>
   <si>
     <t>Browser</t>
@@ -356,8 +362,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -414,7 +420,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,14 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -451,6 +457,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -484,7 +497,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,20 +527,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -522,20 +542,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -562,187 +568,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,21 +773,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,6 +825,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -859,160 +874,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,7 +1402,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1445,7 +1451,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1459,7 +1465,7 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1479,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>2</v>
@@ -1505,16 +1511,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="8"/>
     </row>
@@ -1526,16 +1532,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -1547,16 +1553,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -1588,22 +1594,22 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -1611,174 +1617,174 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:7">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="11">
         <v>2</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:7">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:7">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:7">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="7">
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" s="11">
         <v>2</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1816,16 +1822,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -1833,53 +1839,53 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1891,137 +1897,146 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.447619047619" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.552380952381" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.552380952381" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="48.552380952381" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.447619047619" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.552380952381" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.552380952381" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="48.552380952381" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="105" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="105" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="4" t="b">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="90" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="90" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="C3" s="3">
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="4" t="b">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>75</v>
+      <c r="G3" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
-    <hyperlink ref="F3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
+    <hyperlink ref="G2" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
+    <hyperlink ref="G3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
     <hyperlink ref="B3" r:id="rId2" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
   </hyperlinks>
@@ -2049,35 +2064,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_pt_cases.xlsx
+++ b/test_cases/web_pt_cases.xlsx
@@ -419,8 +419,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,6 +437,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -457,13 +466,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -497,7 +499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,15 +513,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,14 +541,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -568,187 +568,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,6 +773,36 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,36 +864,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -877,148 +877,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2006,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>69</v>

--- a/test_cases/web_pt_cases.xlsx
+++ b/test_cases/web_pt_cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t>Case ID</t>
   </si>
@@ -247,6 +247,7 @@
   </si>
   <si>
     <t>{
+  "start-maximized": true,
   "no-sandbox": true,
   "disable-dev-shm-usage": true,
   "disable-gpu": true,
@@ -262,14 +263,6 @@
   </si>
   <si>
     <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
-  </si>
-  <si>
-    <t>{
-  "no-sandbox": true,
-  "disable-dev-shm-usage": true,
-  "disable-gpu": true,
-  "remote-debugging-port": 9222
-}</t>
   </si>
   <si>
     <t>Action Name</t>
@@ -360,9 +353,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -419,6 +412,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -427,30 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -459,13 +490,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -474,14 +498,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -490,14 +506,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -520,27 +528,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -568,13 +561,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,31 +693,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,108 +735,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -731,24 +742,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,17 +770,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,6 +820,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -849,176 +862,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1900,7 +1893,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -1957,7 +1950,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="105" spans="1:12">
+    <row r="2" s="1" customFormat="1" ht="120" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>67</v>
       </c>
@@ -1995,7 +1988,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="90" spans="1:12">
+    <row r="3" s="1" customFormat="1" ht="120" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -2030,7 +2023,7 @@
         <v>74</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2064,35 +2057,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_pt_cases.xlsx
+++ b/test_cases/web_pt_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
   <si>
     <t>Case ID</t>
   </si>
@@ -111,18 +111,24 @@
     <t>Input Value (if applicable)</t>
   </si>
   <si>
+    <t>TestSetup</t>
+  </si>
+  <si>
     <t>BaiduPage</t>
   </si>
   <si>
     <t>open_url</t>
   </si>
   <si>
+    <t>https://www.google.com.hk</t>
+  </si>
+  <si>
+    <t>Open Baidu homepage</t>
+  </si>
+  <si>
     <t>https://www.baidu.com/</t>
   </si>
   <si>
-    <t>Open Baidu homepage</t>
-  </si>
-  <si>
     <t>search_input</t>
   </si>
   <si>
@@ -189,9 +195,6 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>TargetURL</t>
-  </si>
-  <si>
     <t>Rounds</t>
   </si>
   <si>
@@ -223,9 +226,6 @@
   </si>
   <si>
     <t>DEV</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
   </si>
   <si>
     <t>chrome</t>
@@ -263,6 +263,16 @@
   </si>
   <si>
     <t>E:\Downloads\my files\chromedriver-win64\chromedriver.exe</t>
+  </si>
+  <si>
+    <t>{
+  "start-maximized": true,
+  "no-sandbox": true,
+  "disable-dev-shm-usage": true,
+  "disable-gpu": true,
+  "remote-debugging-port": 9222,
+  "headless": false
+}</t>
   </si>
   <si>
     <t>Action Name</t>
@@ -353,10 +363,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -375,6 +385,11 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FFECECEC"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
@@ -387,15 +402,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10.3"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -406,9 +423,78 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,10 +507,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,104 +545,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -561,31 +571,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,31 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,37 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,73 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,21 +780,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -801,45 +815,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,15 +837,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -888,130 +898,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,20 +1039,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1406,44 +1416,44 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1459,7 +1469,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1474,90 +1484,90 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1568,10 +1578,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1581,27 +1591,27 @@
     <col min="3" max="3" width="12.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="32.7142857142857" style="9" customWidth="1"/>
-    <col min="7" max="7" width="23.1428571428571" style="9" customWidth="1"/>
+    <col min="6" max="6" width="32.7142857142857" style="8" customWidth="1"/>
+    <col min="7" max="7" width="23.1428571428571" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1609,186 +1619,230 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="7" t="s">
+      <c r="F4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="11" t="s">
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="F9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10" t="s">
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="E10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="11">
         <v>2</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="11">
-        <v>2</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>42</v>
+      <c r="G11" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11">
       <formula1>Locators!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.baidu.com/"/>
-    <hyperlink ref="F6" r:id="rId1" display="https://www.baidu.com/"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.google.com.hk" tooltip="https://www.google.com.hk"/>
+    <hyperlink ref="F4" r:id="rId2" display="https://www.baidu.com/"/>
+    <hyperlink ref="F8" r:id="rId2" display="https://www.baidu.com/"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://www.baidu.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1814,71 +1868,71 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>50</v>
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>54</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1890,148 +1944,136 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="13.1142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13.1142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.447619047619" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.552380952381" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.552380952381" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="48.552380952381" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="1" max="3" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.447619047619" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.552380952381" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.552380952381" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="48.552380952381" style="1" customWidth="1"/>
+    <col min="12" max="16383" width="9.11428571428571" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="9.11428571428571" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:12">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="120" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="120" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B2" s="3">
         <v>5</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="4" t="b">
+      <c r="E2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="H2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="120" spans="1:12">
+    <row r="3" s="1" customFormat="1" ht="120" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="4" t="b">
+      <c r="E3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
-    <hyperlink ref="G3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="https://www.baidu.com" tooltip="https://www.baidu.com"/>
+    <hyperlink ref="F2" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
+    <hyperlink ref="F3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2057,35 +2099,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/test_cases/web_pt_cases.xlsx
+++ b/test_cases/web_pt_cases.xlsx
@@ -135,7 +135,7 @@
     <t>send_keys</t>
   </si>
   <si>
-    <t>python</t>
+    <t>${Key1}</t>
   </si>
   <si>
     <t>Enter search keyword</t>
@@ -156,7 +156,7 @@
     <t>Wait 5s</t>
   </si>
   <si>
-    <t>selenium</t>
+    <t>${Key2}</t>
   </si>
   <si>
     <t>Locator Type</t>
@@ -363,8 +363,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -409,7 +409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,7 +423,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,29 +477,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,6 +508,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -522,7 +522,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,31 +571,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,151 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,6 +776,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,21 +829,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -839,15 +848,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,127 +901,127 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>

--- a/test_cases/web_pt_cases.xlsx
+++ b/test_cases/web_pt_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12330" tabRatio="687" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="8" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
   <si>
     <t>Case ID</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Rounds</t>
+  </si>
+  <si>
+    <t>MaxMinutes</t>
   </si>
   <si>
     <t>LogDetails</t>
@@ -363,10 +366,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -409,7 +412,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,8 +425,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,107 +541,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,13 +574,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,169 +676,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,26 +783,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,16 +823,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,159 +874,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1580,7 +1583,7 @@
   <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1944,28 +1947,27 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.11428571428571" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="3" width="13.1142857142857" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.447619047619" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.552380952381" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.552380952381" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="48.552380952381" style="1" customWidth="1"/>
-    <col min="12" max="16383" width="9.11428571428571" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="9.11428571428571" style="1"/>
+    <col min="1" max="4" width="13.1142857142857" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.447619047619" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.552380952381" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.552380952381" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="48.552380952381" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.11428571428571" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -1999,27 +2001,30 @@
       <c r="K1" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="120" spans="1:11">
+      <c r="L1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="120" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="3">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="4" t="b">
+      <c r="E2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -2034,46 +2039,52 @@
       <c r="K2" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="120" spans="1:11">
+      <c r="L2" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="120" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="3">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="4" t="b">
+      <c r="E3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>77</v>
+      <c r="G3" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>74</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
-    <hyperlink ref="F3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
+    <hyperlink ref="G2" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
+    <hyperlink ref="G3" r:id="rId1" display="http://www.sg2.findhere.org:8044/wd/hub" tooltip="http://www.sg2.findhere.org:8044/wd/hub"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2099,35 +2110,35 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="60" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
